--- a/DBTools/Table定义书.xlsx
+++ b/DBTools/Table定义书.xlsx
@@ -5,78 +5,82 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Training\javaFW\workspace\DBTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Training\JavaFM\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="7905" tabRatio="887" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="7905" tabRatio="887"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="目录" sheetId="2" r:id="rId2"/>
     <sheet name="变更履历" sheetId="3" r:id="rId3"/>
     <sheet name="T-1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="64" r:id="rId5"/>
+    <sheet name="T-test" sheetId="65" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="64" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'T-1'!$A$6:$IM$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'T-test'!$A$6:$IM$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'T-1'!$A$1:$AY$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'T-test'!$A$1:$AY$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">封面!$A:$AU</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">目录!$A$1:$AW$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">变更履历!$A$1:$AW$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'T-1'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'T-test'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">封面!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">目录!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">变更履历!$1:$1</definedName>
     <definedName name="wrn.仕様書表紙." localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
+    <definedName name="wrn.仕様書表紙." localSheetId="4" hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="wrn.仕様書表紙." hidden="1">{#N/A,#N/A,FALSE,"表一覧"}</definedName>
     <definedName name="Z_1B77502F_30EF_4DBC_8F63_7EDA9CE91CA9_.wvu.PrintArea" localSheetId="3" hidden="1">'T-1'!$A$1:$AY$16</definedName>
+    <definedName name="Z_1B77502F_30EF_4DBC_8F63_7EDA9CE91CA9_.wvu.PrintArea" localSheetId="4" hidden="1">'T-test'!$A$1:$AY$19</definedName>
     <definedName name="Z_1B77502F_30EF_4DBC_8F63_7EDA9CE91CA9_.wvu.PrintArea" localSheetId="0" hidden="1">封面!$A:$AU</definedName>
     <definedName name="Z_1B77502F_30EF_4DBC_8F63_7EDA9CE91CA9_.wvu.PrintTitles" localSheetId="3" hidden="1">'T-1'!$1:$1</definedName>
+    <definedName name="Z_1B77502F_30EF_4DBC_8F63_7EDA9CE91CA9_.wvu.PrintTitles" localSheetId="4" hidden="1">'T-test'!$1:$1</definedName>
     <definedName name="Z_1B77502F_30EF_4DBC_8F63_7EDA9CE91CA9_.wvu.PrintTitles" localSheetId="0" hidden="1">封面!$1:$4</definedName>
     <definedName name="Z_1B77502F_30EF_4DBC_8F63_7EDA9CE91CA9_.wvu.PrintTitles" localSheetId="1" hidden="1">目录!#REF!</definedName>
     <definedName name="Z_1B77502F_30EF_4DBC_8F63_7EDA9CE91CA9_.wvu.PrintTitles" localSheetId="2" hidden="1">变更履历!$1:$1</definedName>
     <definedName name="Z_2992C164_F2B0_4E5C_B155_C4029CD7FBED_.wvu.PrintArea" localSheetId="3" hidden="1">'T-1'!$A$1:$AY$16</definedName>
+    <definedName name="Z_2992C164_F2B0_4E5C_B155_C4029CD7FBED_.wvu.PrintArea" localSheetId="4" hidden="1">'T-test'!$A$1:$AY$19</definedName>
     <definedName name="Z_2992C164_F2B0_4E5C_B155_C4029CD7FBED_.wvu.PrintArea" localSheetId="0" hidden="1">封面!$A:$AU</definedName>
     <definedName name="Z_2992C164_F2B0_4E5C_B155_C4029CD7FBED_.wvu.PrintTitles" localSheetId="3" hidden="1">'T-1'!$1:$1</definedName>
+    <definedName name="Z_2992C164_F2B0_4E5C_B155_C4029CD7FBED_.wvu.PrintTitles" localSheetId="4" hidden="1">'T-test'!$1:$1</definedName>
     <definedName name="Z_2992C164_F2B0_4E5C_B155_C4029CD7FBED_.wvu.PrintTitles" localSheetId="0" hidden="1">封面!$1:$4</definedName>
     <definedName name="Z_2992C164_F2B0_4E5C_B155_C4029CD7FBED_.wvu.PrintTitles" localSheetId="1" hidden="1">目录!#REF!</definedName>
     <definedName name="Z_2992C164_F2B0_4E5C_B155_C4029CD7FBED_.wvu.PrintTitles" localSheetId="2" hidden="1">变更履历!$1:$1</definedName>
     <definedName name="Z_BB7EFE20_1FA0_404B_A0EA_A533D0B16290_.wvu.PrintArea" localSheetId="3" hidden="1">'T-1'!$A$1:$AY$17</definedName>
+    <definedName name="Z_BB7EFE20_1FA0_404B_A0EA_A533D0B16290_.wvu.PrintArea" localSheetId="4" hidden="1">'T-test'!$A$1:$AY$33</definedName>
     <definedName name="Z_BB7EFE20_1FA0_404B_A0EA_A533D0B16290_.wvu.PrintArea" localSheetId="0" hidden="1">封面!$A:$AU</definedName>
     <definedName name="Z_BB7EFE20_1FA0_404B_A0EA_A533D0B16290_.wvu.PrintTitles" localSheetId="3" hidden="1">'T-1'!$1:$1</definedName>
+    <definedName name="Z_BB7EFE20_1FA0_404B_A0EA_A533D0B16290_.wvu.PrintTitles" localSheetId="4" hidden="1">'T-test'!$1:$1</definedName>
     <definedName name="Z_BB7EFE20_1FA0_404B_A0EA_A533D0B16290_.wvu.PrintTitles" localSheetId="0" hidden="1">封面!$1:$4</definedName>
     <definedName name="Z_BB7EFE20_1FA0_404B_A0EA_A533D0B16290_.wvu.PrintTitles" localSheetId="1" hidden="1">目录!#REF!</definedName>
     <definedName name="Z_BB7EFE20_1FA0_404B_A0EA_A533D0B16290_.wvu.PrintTitles" localSheetId="2" hidden="1">变更履历!$1:$1</definedName>
     <definedName name="Z_EB26A217_5884_4572_AA69_E96CC7557F55_.wvu.PrintArea" localSheetId="3" hidden="1">'T-1'!$A$1:$AY$16</definedName>
+    <definedName name="Z_EB26A217_5884_4572_AA69_E96CC7557F55_.wvu.PrintArea" localSheetId="4" hidden="1">'T-test'!$A$1:$AY$19</definedName>
     <definedName name="Z_EB26A217_5884_4572_AA69_E96CC7557F55_.wvu.PrintArea" localSheetId="0" hidden="1">封面!$A:$AU</definedName>
     <definedName name="Z_EB26A217_5884_4572_AA69_E96CC7557F55_.wvu.PrintTitles" localSheetId="3" hidden="1">'T-1'!$1:$1</definedName>
+    <definedName name="Z_EB26A217_5884_4572_AA69_E96CC7557F55_.wvu.PrintTitles" localSheetId="4" hidden="1">'T-test'!$1:$1</definedName>
     <definedName name="Z_EB26A217_5884_4572_AA69_E96CC7557F55_.wvu.PrintTitles" localSheetId="0" hidden="1">封面!$1:$4</definedName>
     <definedName name="Z_EB26A217_5884_4572_AA69_E96CC7557F55_.wvu.PrintTitles" localSheetId="1" hidden="1">目录!#REF!</definedName>
     <definedName name="Z_EB26A217_5884_4572_AA69_E96CC7557F55_.wvu.PrintTitles" localSheetId="2" hidden="1">变更履历!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yamanaka - 個人用ビュー" guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1017" windowHeight="574" tabRatio="929" activeSheetId="4" showComments="commIndAndComment"/>
+    <customWorkbookView name="ABeam Consulting(Azumi) - 個人用ビュー" guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="536" tabRatio="725" activeSheetId="2"/>
+    <customWorkbookView name="ABeam Consulting - 個人用ビュー" guid="{2992C164-F2B0-4E5C-B155-C4029CD7FBED}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="574" tabRatio="929" activeSheetId="3" showComments="commIndAndComment"/>
+    <customWorkbookView name="Yamashita, Hiromi - 個人用ビュー" guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="994" windowHeight="575" tabRatio="929" activeSheetId="8"/>
     <customWorkbookView name="宮崎達也 - 個人用ビュー" guid="{BB7EFE20-1FA0-404B-A0EA-A533D0B16290}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1396" windowHeight="855" tabRatio="725" activeSheetId="20"/>
-    <customWorkbookView name="Yamashita, Hiromi - 個人用ビュー" guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="994" windowHeight="575" tabRatio="929" activeSheetId="8"/>
-    <customWorkbookView name="ABeam Consulting - 個人用ビュー" guid="{2992C164-F2B0-4E5C-B155-C4029CD7FBED}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="574" tabRatio="929" activeSheetId="3" showComments="commIndAndComment"/>
-    <customWorkbookView name="ABeam Consulting(Azumi) - 個人用ビュー" guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="536" tabRatio="725" activeSheetId="2"/>
-    <customWorkbookView name="Yamanaka - 個人用ビュー" guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1017" windowHeight="574" tabRatio="929" activeSheetId="4" showComments="commIndAndComment"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
-  <si>
-    <t>GoodsID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>テキスト</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
   <si>
     <t>Table ID</t>
     <phoneticPr fontId="17"/>
@@ -99,14 +103,6 @@
   </si>
   <si>
     <t>nvarchar</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>varchar</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -324,6 +320,14 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
+    <t>it</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="17"/>
   </si>
@@ -344,10 +348,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>it</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>iu</t>
     <phoneticPr fontId="17"/>
   </si>
@@ -360,6 +360,22 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
+    <t>datatype</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>客户名称</t>
     <phoneticPr fontId="17"/>
   </si>
@@ -388,12 +404,255 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>更新者</t>
     <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>nchar</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testBigint</t>
+  </si>
+  <si>
+    <t>testInt</t>
+  </si>
+  <si>
+    <t>testDecimal</t>
+  </si>
+  <si>
+    <t>testLong</t>
+  </si>
+  <si>
+    <t>testBit</t>
+  </si>
+  <si>
+    <t>testNvarchar</t>
+  </si>
+  <si>
+    <t>testVarchar</t>
+  </si>
+  <si>
+    <t>testChar</t>
+  </si>
+  <si>
+    <t>testChar</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testNchar</t>
+  </si>
+  <si>
+    <t>testNchar</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testNvarchar</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testText</t>
+  </si>
+  <si>
+    <t>testText</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testDatetime</t>
+  </si>
+  <si>
+    <t>testDatetime</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testDate</t>
+  </si>
+  <si>
+    <t>testDate</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testBigint</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testInt</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testLong</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testFloat</t>
+  </si>
+  <si>
+    <t>testBit</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>nchar</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testVarchar</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testFloat</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testDecimal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>13,3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testCharNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testNcharNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testVarcharNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testNvarcharNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testTextNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testDatetimeNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testDateNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testBigintNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testIntNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testLongNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testFloatNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testDecimalNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>testBitNullable</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Ａ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>你</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -403,27 +662,27 @@
   <numFmts count="21">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0;\-&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="189" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="191" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="196" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="197" formatCode="0_ "/>
-    <numFmt numFmtId="198" formatCode="[&lt;=999]000;000\-00"/>
-    <numFmt numFmtId="199" formatCode="0000000000000"/>
-    <numFmt numFmtId="200" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="201" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="202" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="203" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="204" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="205" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="206" formatCode="0.0%;\(0.0%\)"/>
-    <numFmt numFmtId="207" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="208" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="209" formatCode="#,##0.0;[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="210" formatCode="0.0%;[Red]\(0.0%\)"/>
-    <numFmt numFmtId="211" formatCode="_ * #,##0.00_)&quot;￡&quot;_ ;_ * \(#,##0.00\)&quot;￡&quot;_ ;_ * &quot;-&quot;??_)&quot;￡&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="212" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="[&lt;=999]000;000\-00"/>
+    <numFmt numFmtId="182" formatCode="0000000000000"/>
+    <numFmt numFmtId="183" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="184" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="188" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="189" formatCode="0.0%;\(0.0%\)"/>
+    <numFmt numFmtId="190" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="191" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="192" formatCode="#,##0.0;[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="193" formatCode="0.0%;[Red]\(0.0%\)"/>
+    <numFmt numFmtId="194" formatCode="_ * #,##0.00_)&quot;￡&quot;_ ;_ * \(#,##0.00\)&quot;￡&quot;_ ;_ * &quot;-&quot;??_)&quot;￡&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="195" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="9"/>
       <name val="MS UI Gothic"/>
@@ -637,13 +896,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
       <family val="3"/>
@@ -985,22 +1237,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="196" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="204" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="207" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="208" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="206" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="191" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="206" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -1009,36 +1261,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="206" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="211" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="194" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="206" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="209" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="210" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="197" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="193" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1079,7 +1331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,7 +1445,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="71" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="212" fontId="22" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="195" fontId="22" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="71" applyFont="1" applyBorder="1">
@@ -1220,10 +1472,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="34" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="34" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="212" fontId="34" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="195" fontId="34" fillId="0" borderId="0" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="71" applyFont="1" applyFill="1">
@@ -1280,94 +1532,118 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="21" fillId="0" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="21" fillId="0" borderId="2" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="21" fillId="0" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="25" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="212" fontId="21" fillId="0" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="212" fontId="21" fillId="0" borderId="2" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="212" fontId="21" fillId="0" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="25" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="25" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,10 +1655,43 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1394,62 +1703,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="19" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="20" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="71" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="72">
@@ -1831,9 +2092,7 @@
   </sheetPr>
   <dimension ref="A1:II40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AR15" sqref="AR15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1640625" defaultRowHeight="16.5"/>
   <cols>
@@ -2739,7 +2998,7 @@
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="61" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S16" s="61"/>
       <c r="T16" s="61"/>
@@ -2790,7 +3049,7 @@
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="64" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S17" s="64"/>
       <c r="T17" s="64"/>
@@ -3037,7 +3296,7 @@
       <c r="P22" s="28"/>
       <c r="Q22" s="28"/>
       <c r="R22" s="66" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S22" s="66"/>
       <c r="T22" s="66"/>
@@ -3953,8 +4212,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BB7EFE20-1FA0-404B-A0EA-A533D0B16290}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" showRuler="0" topLeftCell="D1">
-      <selection activeCell="D1" sqref="D1"/>
+    <customSheetView guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" scale="85" showGridLines="0" fitToPage="1" printArea="1" showRuler="0">
+      <selection activeCell="AP24" sqref="AP24"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
@@ -3962,10 +4221,10 @@
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" showRuler="0">
+    <customSheetView guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" showRuler="0">
       <selection activeCell="R26" sqref="R26:AD27"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -3980,17 +4239,17 @@
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" showRuler="0">
+    <customSheetView guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" showRuler="0">
       <selection activeCell="R26" sqref="R26:AD27"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" scale="85" showGridLines="0" fitToPage="1" printArea="1" showRuler="0">
-      <selection activeCell="AP24" sqref="AP24"/>
+    <customSheetView guid="{BB7EFE20-1FA0-404B-A0EA-A533D0B16290}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" showRuler="0" topLeftCell="D1">
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0">
@@ -4028,9 +4287,7 @@
   </sheetPr>
   <dimension ref="A2:AW9"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1640625" defaultRowHeight="16.5"/>
   <cols>
@@ -4040,7 +4297,7 @@
     <row r="2" spans="1:49">
       <c r="A2" s="43"/>
       <c r="B2" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
@@ -4153,59 +4410,59 @@
     <row r="5" spans="1:49">
       <c r="A5" s="43"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="70"/>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70"/>
-      <c r="AS5" s="70"/>
+      <c r="C5" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
       <c r="AT5" s="14"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="14"/>
@@ -4214,54 +4471,54 @@
     <row r="6" spans="1:49">
       <c r="A6" s="43"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="68">
+      <c r="C6" s="74">
         <f>ROW()-6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="79"/>
-      <c r="AH6" s="79"/>
-      <c r="AI6" s="79"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
-      <c r="AL6" s="79"/>
-      <c r="AM6" s="79"/>
-      <c r="AN6" s="79"/>
-      <c r="AO6" s="79"/>
-      <c r="AP6" s="79"/>
-      <c r="AQ6" s="79"/>
-      <c r="AR6" s="79"/>
-      <c r="AS6" s="80"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="82"/>
+      <c r="AO6" s="82"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="83"/>
       <c r="AT6" s="14"/>
       <c r="AU6" s="14"/>
       <c r="AV6" s="14"/>
@@ -4270,59 +4527,59 @@
     <row r="7" spans="1:49">
       <c r="A7" s="43"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="68">
+      <c r="C7" s="74">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68" t="str">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74" t="str">
         <f>"T-"&amp;C7</f>
         <v>T-1</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="76"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="76"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="77"/>
       <c r="AT7" s="14"/>
       <c r="AU7" s="14"/>
       <c r="AV7" s="14"/>
@@ -4331,49 +4588,49 @@
     <row r="8" spans="1:49">
       <c r="A8" s="43"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="88"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="73"/>
       <c r="AT8" s="14"/>
       <c r="AU8" s="14"/>
       <c r="AV8" s="14"/>
@@ -4432,8 +4689,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BB7EFE20-1FA0-404B-A0EA-A533D0B16290}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
-      <selection sqref="A1:H2"/>
+    <customSheetView guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0" topLeftCell="A4">
+      <selection activeCell="T30" sqref="T30"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
@@ -4441,10 +4698,10 @@
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" scale="75" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
-      <selection activeCell="AF29" sqref="AF29"/>
+    <customSheetView guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" scale="75" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
+      <selection activeCell="J32" sqref="J32"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -4459,17 +4716,17 @@
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" scale="75" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <customSheetView guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" scale="75" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
+      <selection activeCell="AF29" sqref="AF29"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0" topLeftCell="A4">
-      <selection activeCell="T30" sqref="T30"/>
+    <customSheetView guid="{BB7EFE20-1FA0-404B-A0EA-A533D0B16290}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
+      <selection sqref="A1:H2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0">
@@ -4479,26 +4736,26 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="Y5:AS5"/>
+    <mergeCell ref="Q5:X5"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="Q8:X8"/>
+    <mergeCell ref="Y8:AS8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="Y7:AS7"/>
     <mergeCell ref="Q6:X6"/>
     <mergeCell ref="Q7:X7"/>
     <mergeCell ref="Y6:AS6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="I6:P6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="I8:P8"/>
-    <mergeCell ref="Q8:X8"/>
-    <mergeCell ref="Y8:AS8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="Y5:AS5"/>
-    <mergeCell ref="Q5:X5"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I7:P7"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -4629,7 +4886,7 @@
     <row r="3" spans="1:49">
       <c r="A3" s="43"/>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -4733,176 +4990,176 @@
     <row r="5" spans="1:49">
       <c r="A5" s="43"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="95"/>
-      <c r="AA5" s="95"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="95"/>
-      <c r="AF5" s="95"/>
-      <c r="AG5" s="95"/>
-      <c r="AH5" s="95"/>
-      <c r="AI5" s="95"/>
-      <c r="AJ5" s="95"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="95"/>
-      <c r="AM5" s="95"/>
-      <c r="AN5" s="95"/>
-      <c r="AO5" s="95"/>
-      <c r="AP5" s="95"/>
-      <c r="AQ5" s="95"/>
-      <c r="AR5" s="95"/>
-      <c r="AS5" s="95"/>
-      <c r="AT5" s="95"/>
-      <c r="AU5" s="95"/>
-      <c r="AV5" s="95"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
       <c r="AW5" s="44"/>
     </row>
     <row r="6" spans="1:49" s="57" customFormat="1">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
-      <c r="C6" s="89">
+      <c r="C6" s="93">
         <v>1</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="91"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="91"/>
-      <c r="AC6" s="91"/>
-      <c r="AD6" s="91"/>
-      <c r="AE6" s="91"/>
-      <c r="AF6" s="91"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="91"/>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="91"/>
-      <c r="AM6" s="91"/>
-      <c r="AN6" s="91"/>
-      <c r="AO6" s="91"/>
-      <c r="AP6" s="91"/>
-      <c r="AQ6" s="91"/>
-      <c r="AR6" s="91"/>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="91"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
       <c r="AW6" s="56"/>
     </row>
     <row r="7" spans="1:49" s="57" customFormat="1">
       <c r="A7" s="54"/>
       <c r="B7" s="58"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="94"/>
+      <c r="AM7" s="94"/>
+      <c r="AN7" s="94"/>
+      <c r="AO7" s="94"/>
+      <c r="AP7" s="94"/>
+      <c r="AQ7" s="94"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="94"/>
+      <c r="AU7" s="94"/>
+      <c r="AV7" s="94"/>
       <c r="AW7" s="56"/>
     </row>
     <row r="8" spans="1:49" ht="17.25" thickBot="1">
@@ -4958,8 +5215,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BB7EFE20-1FA0-404B-A0EA-A533D0B16290}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
-      <selection sqref="A1:H2"/>
+    <customSheetView guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" scale="85" showGridLines="0" fitToPage="1" showRuler="0">
+      <selection activeCell="AF15" sqref="AF15"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
@@ -4967,10 +5224,10 @@
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" showPageBreaks="1" showGridLines="0" fitToPage="1" showRuler="0">
-      <selection activeCell="R13" sqref="R13:X13"/>
+    <customSheetView guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" showPageBreaks="1" showGridLines="0" fitToPage="1" showRuler="0">
+      <selection activeCell="AC23" sqref="AC23"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -4985,17 +5242,17 @@
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" showPageBreaks="1" showGridLines="0" fitToPage="1" showRuler="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <customSheetView guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" showPageBreaks="1" showGridLines="0" fitToPage="1" showRuler="0">
+      <selection activeCell="R13" sqref="R13:X13"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" scale="85" showGridLines="0" fitToPage="1" showRuler="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <customSheetView guid="{BB7EFE20-1FA0-404B-A0EA-A533D0B16290}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
+      <selection sqref="A1:H2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0">
@@ -5005,6 +5262,17 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
+    <mergeCell ref="Y6:AV6"/>
+    <mergeCell ref="R7:X7"/>
+    <mergeCell ref="R6:X6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="Y7:AV7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:L7"/>
     <mergeCell ref="M7:Q7"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="Y5:AV5"/>
@@ -5012,17 +5280,6 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R6:X6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="Y6:AV6"/>
-    <mergeCell ref="R7:X7"/>
-    <mergeCell ref="Y7:AV7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -5042,7 +5299,7 @@
   </sheetPr>
   <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="16.5"/>
   <cols>
@@ -5162,24 +5419,24 @@
     <row r="3" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="43"/>
       <c r="B3" s="14"/>
-      <c r="C3" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
+      <c r="C3" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
@@ -5219,24 +5476,24 @@
     <row r="4" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="43"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
+      <c r="C4" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
@@ -5319,73 +5576,73 @@
     <row r="6" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="43"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="110" t="s">
+      <c r="C6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="115" t="s">
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70" t="s">
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="118"/>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="118"/>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="118"/>
-      <c r="AV6" s="118"/>
-      <c r="AW6" s="119"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="120"/>
+      <c r="AM6" s="120"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="120"/>
+      <c r="AR6" s="120"/>
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="120"/>
+      <c r="AW6" s="121"/>
       <c r="AX6" s="14"/>
       <c r="AY6" s="44"/>
       <c r="BM6" s="38"/>
@@ -5393,90 +5650,68 @@
     <row r="7" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="43"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="101">
+      <c r="C7" s="96">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="104" t="s">
+      <c r="R7" s="97"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="106"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="106"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="108"/>
-      <c r="AJ7" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="100"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="108"/>
       <c r="AX7" s="14"/>
       <c r="AY7" s="44"/>
       <c r="BC7" s="46"/>
@@ -5489,668 +5724,642 @@
     </row>
     <row r="8" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="43"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="101">
+      <c r="B8" s="15"/>
+      <c r="C8" s="96">
         <f t="shared" ref="C8:C16" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="124">
+      <c r="D8" s="98"/>
+      <c r="E8" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="97"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="103">
         <v>255</v>
       </c>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="123"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="124"/>
-      <c r="AI8" s="124"/>
-      <c r="AJ8" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="99"/>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="99"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="100"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK8" s="107"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="108"/>
       <c r="AX8" s="14"/>
       <c r="AY8" s="44"/>
       <c r="BC8" s="46"/>
       <c r="BD8" s="46"/>
       <c r="BE8" s="46"/>
       <c r="BF8" s="47"/>
-      <c r="BG8" s="50"/>
+      <c r="BG8" s="48"/>
       <c r="BH8" s="49"/>
       <c r="BI8" s="50"/>
     </row>
-    <row r="9" spans="1:66" ht="33" customHeight="1">
+    <row r="9" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="43"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="101">
+      <c r="C9" s="96">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="106">
+      <c r="D9" s="98"/>
+      <c r="E9" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="97"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="103">
         <v>255</v>
       </c>
-      <c r="U9" s="107"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="99"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="99"/>
-      <c r="AU9" s="99"/>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="100"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK9" s="107"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="108"/>
       <c r="AX9" s="14"/>
       <c r="AY9" s="44"/>
       <c r="BC9" s="46"/>
       <c r="BD9" s="46"/>
       <c r="BE9" s="46"/>
       <c r="BF9" s="47"/>
-      <c r="BG9" s="50"/>
+      <c r="BG9" s="48"/>
       <c r="BH9" s="49"/>
       <c r="BI9" s="50"/>
     </row>
     <row r="10" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="43"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="101">
+      <c r="B10" s="15"/>
+      <c r="C10" s="96">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="99"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="106">
+      <c r="D10" s="98"/>
+      <c r="E10" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="97"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="103">
         <v>18</v>
       </c>
-      <c r="U10" s="107"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="107"/>
-      <c r="AI10" s="108"/>
-      <c r="AJ10" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="99"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="99"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="99"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="99"/>
-      <c r="AW10" s="100"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK10" s="107"/>
+      <c r="AL10" s="107"/>
+      <c r="AM10" s="107"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="107"/>
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="107"/>
+      <c r="AR10" s="107"/>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="107"/>
+      <c r="AV10" s="107"/>
+      <c r="AW10" s="108"/>
       <c r="AX10" s="14"/>
       <c r="AY10" s="44"/>
       <c r="BC10" s="46"/>
       <c r="BD10" s="46"/>
       <c r="BE10" s="46"/>
       <c r="BF10" s="47"/>
-      <c r="BG10" s="50"/>
+      <c r="BG10" s="48"/>
       <c r="BH10" s="49"/>
       <c r="BI10" s="50"/>
     </row>
     <row r="11" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="43"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="101">
+      <c r="B11" s="15"/>
+      <c r="C11" s="96">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="R11" s="99"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="106">
-        <v>9</v>
-      </c>
-      <c r="U11" s="107"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="107"/>
-      <c r="AI11" s="108"/>
-      <c r="AJ11" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="99"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="99"/>
-      <c r="AU11" s="99"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="100"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="97"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="103">
+        <v>90</v>
+      </c>
+      <c r="U11" s="104"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK11" s="107"/>
+      <c r="AL11" s="107"/>
+      <c r="AM11" s="107"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="107"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="108"/>
       <c r="AX11" s="14"/>
       <c r="AY11" s="44"/>
       <c r="BC11" s="46"/>
       <c r="BD11" s="46"/>
       <c r="BE11" s="46"/>
       <c r="BF11" s="47"/>
-      <c r="BG11" s="50"/>
+      <c r="BG11" s="48"/>
       <c r="BH11" s="49"/>
       <c r="BI11" s="50"/>
     </row>
     <row r="12" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="43"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="101">
+      <c r="B12" s="15"/>
+      <c r="C12" s="96">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="99"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="106">
+      <c r="D12" s="98"/>
+      <c r="E12" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="97"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="103">
         <v>255</v>
       </c>
-      <c r="U12" s="107"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="108"/>
-      <c r="AJ12" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="99"/>
-      <c r="AS12" s="99"/>
-      <c r="AT12" s="99"/>
-      <c r="AU12" s="99"/>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="100"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="102"/>
+      <c r="AJ12" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK12" s="107"/>
+      <c r="AL12" s="107"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="107"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="108"/>
       <c r="AX12" s="14"/>
       <c r="AY12" s="44"/>
       <c r="BC12" s="46"/>
       <c r="BD12" s="46"/>
       <c r="BE12" s="46"/>
       <c r="BF12" s="47"/>
-      <c r="BG12" s="50"/>
+      <c r="BG12" s="48"/>
       <c r="BH12" s="49"/>
       <c r="BI12" s="50"/>
     </row>
     <row r="13" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="43"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="101">
+      <c r="B13" s="15"/>
+      <c r="C13" s="96">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="99"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="108"/>
-      <c r="AJ13" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="99"/>
-      <c r="AS13" s="99"/>
-      <c r="AT13" s="99"/>
-      <c r="AU13" s="99"/>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="100"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="97"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK13" s="107"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="107"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
+      <c r="AR13" s="107"/>
+      <c r="AS13" s="107"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="107"/>
+      <c r="AW13" s="108"/>
       <c r="AX13" s="14"/>
       <c r="AY13" s="44"/>
       <c r="BC13" s="46"/>
       <c r="BD13" s="46"/>
       <c r="BE13" s="46"/>
       <c r="BF13" s="47"/>
-      <c r="BG13" s="50"/>
+      <c r="BG13" s="48"/>
       <c r="BH13" s="49"/>
       <c r="BI13" s="50"/>
     </row>
     <row r="14" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="43"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="101">
+      <c r="B14" s="15"/>
+      <c r="C14" s="96">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="R14" s="99"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="106">
+      <c r="D14" s="98"/>
+      <c r="E14" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="97"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="103">
         <v>40</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="107"/>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="108"/>
-      <c r="AJ14" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="99"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="99"/>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="100"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK14" s="107"/>
+      <c r="AL14" s="107"/>
+      <c r="AM14" s="107"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="107"/>
+      <c r="AP14" s="107"/>
+      <c r="AQ14" s="107"/>
+      <c r="AR14" s="107"/>
+      <c r="AS14" s="107"/>
+      <c r="AT14" s="107"/>
+      <c r="AU14" s="107"/>
+      <c r="AV14" s="107"/>
+      <c r="AW14" s="108"/>
       <c r="AX14" s="14"/>
       <c r="AY14" s="44"/>
       <c r="BC14" s="46"/>
       <c r="BD14" s="46"/>
       <c r="BE14" s="46"/>
       <c r="BF14" s="47"/>
-      <c r="BG14" s="50"/>
+      <c r="BG14" s="48"/>
       <c r="BH14" s="49"/>
       <c r="BI14" s="50"/>
     </row>
     <row r="15" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="43"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="101">
+      <c r="B15" s="15"/>
+      <c r="C15" s="96">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="R15" s="99"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="107"/>
-      <c r="AI15" s="108"/>
-      <c r="AJ15" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK15" s="99"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="99"/>
-      <c r="AN15" s="99"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="99"/>
-      <c r="AR15" s="99"/>
-      <c r="AS15" s="99"/>
-      <c r="AT15" s="99"/>
-      <c r="AU15" s="99"/>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="100"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="97"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="108"/>
       <c r="AX15" s="14"/>
       <c r="AY15" s="44"/>
       <c r="BC15" s="46"/>
       <c r="BD15" s="46"/>
       <c r="BE15" s="46"/>
       <c r="BF15" s="47"/>
-      <c r="BG15" s="50"/>
+      <c r="BG15" s="48"/>
       <c r="BH15" s="49"/>
       <c r="BI15" s="50"/>
     </row>
     <row r="16" spans="1:66" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="43"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="101">
+      <c r="B16" s="15"/>
+      <c r="C16" s="96">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="106">
+      <c r="D16" s="98"/>
+      <c r="E16" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="97"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="103">
         <v>40</v>
       </c>
-      <c r="U16" s="107"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="109"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="106"/>
-      <c r="AG16" s="107"/>
-      <c r="AH16" s="107"/>
-      <c r="AI16" s="108"/>
-      <c r="AJ16" s="98" t="s">
+      <c r="U16" s="104"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="99"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="99"/>
-      <c r="AQ16" s="99"/>
-      <c r="AR16" s="99"/>
-      <c r="AS16" s="99"/>
-      <c r="AT16" s="99"/>
-      <c r="AU16" s="99"/>
-      <c r="AV16" s="99"/>
-      <c r="AW16" s="100"/>
+      <c r="AK16" s="107"/>
+      <c r="AL16" s="107"/>
+      <c r="AM16" s="107"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="107"/>
+      <c r="AP16" s="107"/>
+      <c r="AQ16" s="107"/>
+      <c r="AR16" s="107"/>
+      <c r="AS16" s="107"/>
+      <c r="AT16" s="107"/>
+      <c r="AU16" s="107"/>
+      <c r="AV16" s="107"/>
+      <c r="AW16" s="108"/>
       <c r="AX16" s="14"/>
       <c r="AY16" s="44"/>
       <c r="BC16" s="46"/>
       <c r="BD16" s="46"/>
       <c r="BE16" s="46"/>
       <c r="BF16" s="47"/>
-      <c r="BG16" s="50"/>
+      <c r="BG16" s="48"/>
       <c r="BH16" s="49"/>
       <c r="BI16" s="50"/>
     </row>
@@ -6209,8 +6418,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BB7EFE20-1FA0-404B-A0EA-A533D0B16290}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" showRuler="0">
-      <selection sqref="A1:H2"/>
+    <customSheetView guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" showRuler="0">
+      <selection activeCell="AA9" sqref="AA9:AS9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0">
@@ -6218,10 +6427,10 @@
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" scale="75" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
-      <selection activeCell="T19" sqref="T19:V19"/>
+    <customSheetView guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" scale="80" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" showRuler="0" topLeftCell="B4">
+      <selection activeCell="T26" sqref="T26:V26"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
@@ -6236,17 +6445,17 @@
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{1B77502F-30EF-4DBC-8F63-7EDA9CE91CA9}" scale="80" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" showRuler="0" topLeftCell="B4">
-      <selection activeCell="T26" sqref="T26:V26"/>
+    <customSheetView guid="{1C97D39B-D06A-4D15-8B52-8674BBC87B1E}" scale="75" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview" showRuler="0">
+      <selection activeCell="T19" sqref="T19:V19"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0">
         <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
         <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
       </headerFooter>
     </customSheetView>
-    <customSheetView guid="{EB26A217-5884-4572-AA69-E96CC7557F55}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" showRuler="0">
-      <selection activeCell="AA9" sqref="AA9:AS9"/>
+    <customSheetView guid="{BB7EFE20-1FA0-404B-A0EA-A533D0B16290}" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" showRuler="0">
+      <selection sqref="A1:H2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0">
@@ -6256,69 +6465,39 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="114">
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AJ10:AW10"/>
+    <mergeCell ref="AJ11:AW11"/>
+    <mergeCell ref="AJ15:AW15"/>
+    <mergeCell ref="AJ14:AW14"/>
+    <mergeCell ref="AJ13:AW13"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AJ12:AW12"/>
+    <mergeCell ref="AJ6:AW6"/>
+    <mergeCell ref="AJ16:AW16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="W15:Y15"/>
     <mergeCell ref="W16:Y16"/>
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="Z16:AB16"/>
     <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AJ6:AW6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AJ12:AW12"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="C9:D9"/>
@@ -6340,36 +6519,66 @@
     <mergeCell ref="W13:Y13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:N13"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="AC12:AE12"/>
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="W10:Y10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AJ16:AW16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T7:V7"/>
     <mergeCell ref="AJ7:AW7"/>
     <mergeCell ref="AJ8:AW8"/>
     <mergeCell ref="AJ9:AW9"/>
-    <mergeCell ref="AJ10:AW10"/>
-    <mergeCell ref="AJ11:AW11"/>
-    <mergeCell ref="AJ15:AW15"/>
-    <mergeCell ref="AJ14:AW14"/>
-    <mergeCell ref="AJ13:AW13"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="AF12:AI12"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -6378,43 +6587,2731 @@
     <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$D$5:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC7:AE16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$E$5:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>W7:Y16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$C$5:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>O7:P16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$F$5:$F$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q7:S16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E5"/>
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="54" width="4.6640625" style="13" customWidth="1"/>
+    <col min="55" max="59" width="4.6640625" style="38" customWidth="1"/>
+    <col min="60" max="60" width="4.6640625" style="39" customWidth="1"/>
+    <col min="61" max="64" width="4.6640625" style="38" customWidth="1"/>
+    <col min="65" max="16384" width="4.6640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" ht="9" customHeight="1">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="42"/>
+    </row>
+    <row r="2" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="43"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="14"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="44"/>
+    </row>
+    <row r="3" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="44"/>
+    </row>
+    <row r="4" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="44"/>
+    </row>
+    <row r="5" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="15"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="44"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="38"/>
+    </row>
+    <row r="6" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="120"/>
+      <c r="AM6" s="120"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="120"/>
+      <c r="AP6" s="120"/>
+      <c r="AQ6" s="120"/>
+      <c r="AR6" s="120"/>
+      <c r="AS6" s="120"/>
+      <c r="AT6" s="120"/>
+      <c r="AU6" s="120"/>
+      <c r="AV6" s="120"/>
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="44"/>
+      <c r="BM6" s="38"/>
+    </row>
+    <row r="7" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="96">
+        <f>ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="98"/>
+      <c r="E7" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="126"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="103">
+        <v>2</v>
+      </c>
+      <c r="U7" s="104"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="99"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="108"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="44"/>
+      <c r="BC7" s="46"/>
+      <c r="BD7" s="46"/>
+      <c r="BE7" s="46"/>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="48"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="50"/>
+    </row>
+    <row r="8" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="96">
+        <f t="shared" ref="C8:C32" si="0">ROW()-6</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="125" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" s="126"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="103">
+        <v>3</v>
+      </c>
+      <c r="U8" s="104"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK8" s="107"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="44"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="46"/>
+      <c r="BE8" s="46"/>
+      <c r="BF8" s="47"/>
+      <c r="BG8" s="48"/>
+      <c r="BH8" s="49"/>
+      <c r="BI8" s="50"/>
+    </row>
+    <row r="9" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="96">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="122" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="126"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="103">
+        <v>20</v>
+      </c>
+      <c r="U9" s="104"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" s="107"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="108"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="44"/>
+      <c r="BC9" s="46"/>
+      <c r="BD9" s="46"/>
+      <c r="BE9" s="46"/>
+      <c r="BF9" s="47"/>
+      <c r="BG9" s="48"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="50"/>
+    </row>
+    <row r="10" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="96">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="98"/>
+      <c r="E10" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="126"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="103">
+        <v>20</v>
+      </c>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK10" s="107"/>
+      <c r="AL10" s="107"/>
+      <c r="AM10" s="107"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="107"/>
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="107"/>
+      <c r="AR10" s="107"/>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="107"/>
+      <c r="AV10" s="107"/>
+      <c r="AW10" s="108"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="44"/>
+      <c r="BC10" s="46"/>
+      <c r="BD10" s="46"/>
+      <c r="BE10" s="46"/>
+      <c r="BF10" s="47"/>
+      <c r="BG10" s="48"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="50"/>
+    </row>
+    <row r="11" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="96">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="98"/>
+      <c r="E11" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" s="126"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="103">
+        <v>1000</v>
+      </c>
+      <c r="U11" s="104"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="107"/>
+      <c r="AL11" s="107"/>
+      <c r="AM11" s="107"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="107"/>
+      <c r="AU11" s="107"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="108"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="44"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="48"/>
+      <c r="BH11" s="49"/>
+      <c r="BI11" s="50"/>
+    </row>
+    <row r="12" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="96">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="98"/>
+      <c r="E12" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="126"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="103"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="100"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="102"/>
+      <c r="AJ12" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK12" s="107"/>
+      <c r="AL12" s="107"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="107"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="107"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="108"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="44"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="47"/>
+      <c r="BG12" s="48"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="50"/>
+    </row>
+    <row r="13" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="96">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="126"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="100"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK13" s="107"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="107"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="107"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="107"/>
+      <c r="AR13" s="107"/>
+      <c r="AS13" s="107"/>
+      <c r="AT13" s="107"/>
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="107"/>
+      <c r="AW13" s="108"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="44"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="47"/>
+      <c r="BG13" s="48"/>
+      <c r="BH13" s="49"/>
+      <c r="BI13" s="50"/>
+    </row>
+    <row r="14" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="96">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="98"/>
+      <c r="E14" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="125" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14" s="126"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="100"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK14" s="107"/>
+      <c r="AL14" s="107"/>
+      <c r="AM14" s="107"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="107"/>
+      <c r="AP14" s="107"/>
+      <c r="AQ14" s="107"/>
+      <c r="AR14" s="107"/>
+      <c r="AS14" s="107"/>
+      <c r="AT14" s="107"/>
+      <c r="AU14" s="107"/>
+      <c r="AV14" s="107"/>
+      <c r="AW14" s="108"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="44"/>
+      <c r="BC14" s="46"/>
+      <c r="BD14" s="46"/>
+      <c r="BE14" s="46"/>
+      <c r="BF14" s="47"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="50"/>
+    </row>
+    <row r="15" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="43"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="96">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="126"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="85">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="108"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="44"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="47"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="49"/>
+      <c r="BI15" s="50"/>
+    </row>
+    <row r="16" spans="1:66" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="43"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="96">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" s="126"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="100"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK16" s="107"/>
+      <c r="AL16" s="107"/>
+      <c r="AM16" s="107"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="107"/>
+      <c r="AP16" s="107"/>
+      <c r="AQ16" s="107"/>
+      <c r="AR16" s="107"/>
+      <c r="AS16" s="107"/>
+      <c r="AT16" s="107"/>
+      <c r="AU16" s="107"/>
+      <c r="AV16" s="107"/>
+      <c r="AW16" s="108"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="44"/>
+      <c r="BC16" s="46"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="46"/>
+      <c r="BF16" s="47"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="49"/>
+      <c r="BI16" s="50"/>
+    </row>
+    <row r="17" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="96">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="98"/>
+      <c r="E17" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" s="126"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="85">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK17" s="107"/>
+      <c r="AL17" s="107"/>
+      <c r="AM17" s="107"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="107"/>
+      <c r="AP17" s="107"/>
+      <c r="AQ17" s="107"/>
+      <c r="AR17" s="107"/>
+      <c r="AS17" s="107"/>
+      <c r="AT17" s="107"/>
+      <c r="AU17" s="107"/>
+      <c r="AV17" s="107"/>
+      <c r="AW17" s="108"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="44"/>
+      <c r="BC17" s="46"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="47"/>
+      <c r="BG17" s="48"/>
+      <c r="BH17" s="49"/>
+      <c r="BI17" s="50"/>
+    </row>
+    <row r="18" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="96">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="R18" s="126"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="U18" s="104"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="85">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="102"/>
+      <c r="AJ18" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK18" s="107"/>
+      <c r="AL18" s="107"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="107"/>
+      <c r="AQ18" s="107"/>
+      <c r="AR18" s="107"/>
+      <c r="AS18" s="107"/>
+      <c r="AT18" s="107"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="107"/>
+      <c r="AW18" s="108"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="44"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="47"/>
+      <c r="BG18" s="48"/>
+      <c r="BH18" s="49"/>
+      <c r="BI18" s="50"/>
+    </row>
+    <row r="19" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="96">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="R19" s="126"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="103"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="85" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="102"/>
+      <c r="AJ19" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK19" s="107"/>
+      <c r="AL19" s="107"/>
+      <c r="AM19" s="107"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="107"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="107"/>
+      <c r="AR19" s="107"/>
+      <c r="AS19" s="107"/>
+      <c r="AT19" s="107"/>
+      <c r="AU19" s="107"/>
+      <c r="AV19" s="107"/>
+      <c r="AW19" s="108"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="44"/>
+      <c r="BC19" s="46"/>
+      <c r="BD19" s="46"/>
+      <c r="BE19" s="46"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="48"/>
+      <c r="BH19" s="49"/>
+      <c r="BI19" s="50"/>
+    </row>
+    <row r="20" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="96">
+        <f>ROW()-6</f>
+        <v>14</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" s="126"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="103">
+        <v>2</v>
+      </c>
+      <c r="U20" s="104"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="102"/>
+      <c r="AJ20" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK20" s="107"/>
+      <c r="AL20" s="107"/>
+      <c r="AM20" s="107"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="107"/>
+      <c r="AP20" s="107"/>
+      <c r="AQ20" s="107"/>
+      <c r="AR20" s="107"/>
+      <c r="AS20" s="107"/>
+      <c r="AT20" s="107"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="107"/>
+      <c r="AW20" s="108"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="44"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="47"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="49"/>
+      <c r="BI20" s="50"/>
+    </row>
+    <row r="21" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="96">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="125" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" s="126"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="103">
+        <v>3</v>
+      </c>
+      <c r="U21" s="104"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="100"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="102"/>
+      <c r="AJ21" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK21" s="107"/>
+      <c r="AL21" s="107"/>
+      <c r="AM21" s="107"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="107"/>
+      <c r="AP21" s="107"/>
+      <c r="AQ21" s="107"/>
+      <c r="AR21" s="107"/>
+      <c r="AS21" s="107"/>
+      <c r="AT21" s="107"/>
+      <c r="AU21" s="107"/>
+      <c r="AV21" s="107"/>
+      <c r="AW21" s="108"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="44"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="47"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="49"/>
+      <c r="BI21" s="50"/>
+    </row>
+    <row r="22" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="96">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D22" s="98"/>
+      <c r="E22" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="125" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="126"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="103">
+        <v>20</v>
+      </c>
+      <c r="U22" s="104"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="85"/>
+      <c r="AD22" s="99"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="101"/>
+      <c r="AI22" s="102"/>
+      <c r="AJ22" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK22" s="107"/>
+      <c r="AL22" s="107"/>
+      <c r="AM22" s="107"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="107"/>
+      <c r="AP22" s="107"/>
+      <c r="AQ22" s="107"/>
+      <c r="AR22" s="107"/>
+      <c r="AS22" s="107"/>
+      <c r="AT22" s="107"/>
+      <c r="AU22" s="107"/>
+      <c r="AV22" s="107"/>
+      <c r="AW22" s="108"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="44"/>
+      <c r="BC22" s="46"/>
+      <c r="BD22" s="46"/>
+      <c r="BE22" s="46"/>
+      <c r="BF22" s="47"/>
+      <c r="BG22" s="48"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="50"/>
+    </row>
+    <row r="23" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="96">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="R23" s="126"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="103">
+        <v>20</v>
+      </c>
+      <c r="U23" s="104"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="102"/>
+      <c r="AJ23" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK23" s="107"/>
+      <c r="AL23" s="107"/>
+      <c r="AM23" s="107"/>
+      <c r="AN23" s="107"/>
+      <c r="AO23" s="107"/>
+      <c r="AP23" s="107"/>
+      <c r="AQ23" s="107"/>
+      <c r="AR23" s="107"/>
+      <c r="AS23" s="107"/>
+      <c r="AT23" s="107"/>
+      <c r="AU23" s="107"/>
+      <c r="AV23" s="107"/>
+      <c r="AW23" s="108"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="44"/>
+      <c r="BC23" s="46"/>
+      <c r="BD23" s="46"/>
+      <c r="BE23" s="46"/>
+      <c r="BF23" s="47"/>
+      <c r="BG23" s="48"/>
+      <c r="BH23" s="49"/>
+      <c r="BI23" s="50"/>
+    </row>
+    <row r="24" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="96">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="122" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="R24" s="126"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="103">
+        <v>1000</v>
+      </c>
+      <c r="U24" s="104"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="99"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="100"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="101"/>
+      <c r="AI24" s="102"/>
+      <c r="AJ24" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="107"/>
+      <c r="AL24" s="107"/>
+      <c r="AM24" s="107"/>
+      <c r="AN24" s="107"/>
+      <c r="AO24" s="107"/>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="107"/>
+      <c r="AR24" s="107"/>
+      <c r="AS24" s="107"/>
+      <c r="AT24" s="107"/>
+      <c r="AU24" s="107"/>
+      <c r="AV24" s="107"/>
+      <c r="AW24" s="108"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="44"/>
+      <c r="BC24" s="46"/>
+      <c r="BD24" s="46"/>
+      <c r="BE24" s="46"/>
+      <c r="BF24" s="47"/>
+      <c r="BG24" s="48"/>
+      <c r="BH24" s="49"/>
+      <c r="BI24" s="50"/>
+    </row>
+    <row r="25" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="96">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D25" s="98"/>
+      <c r="E25" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="125" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25" s="126"/>
+      <c r="S25" s="127"/>
+      <c r="T25" s="103"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="101"/>
+      <c r="AI25" s="102"/>
+      <c r="AJ25" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK25" s="107"/>
+      <c r="AL25" s="107"/>
+      <c r="AM25" s="107"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="107"/>
+      <c r="AP25" s="107"/>
+      <c r="AQ25" s="107"/>
+      <c r="AR25" s="107"/>
+      <c r="AS25" s="107"/>
+      <c r="AT25" s="107"/>
+      <c r="AU25" s="107"/>
+      <c r="AV25" s="107"/>
+      <c r="AW25" s="108"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="44"/>
+      <c r="BC25" s="46"/>
+      <c r="BD25" s="46"/>
+      <c r="BE25" s="46"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="48"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="50"/>
+    </row>
+    <row r="26" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="96">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="98"/>
+      <c r="E26" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="R26" s="126"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="85"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="101"/>
+      <c r="AI26" s="102"/>
+      <c r="AJ26" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" s="107"/>
+      <c r="AL26" s="107"/>
+      <c r="AM26" s="107"/>
+      <c r="AN26" s="107"/>
+      <c r="AO26" s="107"/>
+      <c r="AP26" s="107"/>
+      <c r="AQ26" s="107"/>
+      <c r="AR26" s="107"/>
+      <c r="AS26" s="107"/>
+      <c r="AT26" s="107"/>
+      <c r="AU26" s="107"/>
+      <c r="AV26" s="107"/>
+      <c r="AW26" s="108"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="44"/>
+      <c r="BC26" s="46"/>
+      <c r="BD26" s="46"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="47"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="50"/>
+    </row>
+    <row r="27" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="96">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D27" s="98"/>
+      <c r="E27" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="125" t="s">
+        <v>108</v>
+      </c>
+      <c r="R27" s="126"/>
+      <c r="S27" s="127"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="85"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="100"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="102"/>
+      <c r="AJ27" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK27" s="107"/>
+      <c r="AL27" s="107"/>
+      <c r="AM27" s="107"/>
+      <c r="AN27" s="107"/>
+      <c r="AO27" s="107"/>
+      <c r="AP27" s="107"/>
+      <c r="AQ27" s="107"/>
+      <c r="AR27" s="107"/>
+      <c r="AS27" s="107"/>
+      <c r="AT27" s="107"/>
+      <c r="AU27" s="107"/>
+      <c r="AV27" s="107"/>
+      <c r="AW27" s="108"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="44"/>
+      <c r="BC27" s="46"/>
+      <c r="BD27" s="46"/>
+      <c r="BE27" s="46"/>
+      <c r="BF27" s="47"/>
+      <c r="BG27" s="48"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="50"/>
+    </row>
+    <row r="28" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="96">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D28" s="98"/>
+      <c r="E28" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="R28" s="126"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="96"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="85"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="102"/>
+      <c r="AJ28" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK28" s="107"/>
+      <c r="AL28" s="107"/>
+      <c r="AM28" s="107"/>
+      <c r="AN28" s="107"/>
+      <c r="AO28" s="107"/>
+      <c r="AP28" s="107"/>
+      <c r="AQ28" s="107"/>
+      <c r="AR28" s="107"/>
+      <c r="AS28" s="107"/>
+      <c r="AT28" s="107"/>
+      <c r="AU28" s="107"/>
+      <c r="AV28" s="107"/>
+      <c r="AW28" s="108"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="44"/>
+      <c r="BC28" s="46"/>
+      <c r="BD28" s="46"/>
+      <c r="BE28" s="46"/>
+      <c r="BF28" s="47"/>
+      <c r="BG28" s="48"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="50"/>
+    </row>
+    <row r="29" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="43"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="96">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D29" s="98"/>
+      <c r="E29" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="124"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="125" t="s">
+        <v>110</v>
+      </c>
+      <c r="R29" s="126"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="96"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK29" s="107"/>
+      <c r="AL29" s="107"/>
+      <c r="AM29" s="107"/>
+      <c r="AN29" s="107"/>
+      <c r="AO29" s="107"/>
+      <c r="AP29" s="107"/>
+      <c r="AQ29" s="107"/>
+      <c r="AR29" s="107"/>
+      <c r="AS29" s="107"/>
+      <c r="AT29" s="107"/>
+      <c r="AU29" s="107"/>
+      <c r="AV29" s="107"/>
+      <c r="AW29" s="108"/>
+      <c r="AX29" s="14"/>
+      <c r="AY29" s="44"/>
+      <c r="BC29" s="46"/>
+      <c r="BD29" s="46"/>
+      <c r="BE29" s="46"/>
+      <c r="BF29" s="47"/>
+      <c r="BG29" s="48"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="50"/>
+    </row>
+    <row r="30" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="43"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="96">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="R30" s="126"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="96"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="99"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="101"/>
+      <c r="AI30" s="102"/>
+      <c r="AJ30" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK30" s="107"/>
+      <c r="AL30" s="107"/>
+      <c r="AM30" s="107"/>
+      <c r="AN30" s="107"/>
+      <c r="AO30" s="107"/>
+      <c r="AP30" s="107"/>
+      <c r="AQ30" s="107"/>
+      <c r="AR30" s="107"/>
+      <c r="AS30" s="107"/>
+      <c r="AT30" s="107"/>
+      <c r="AU30" s="107"/>
+      <c r="AV30" s="107"/>
+      <c r="AW30" s="108"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="44"/>
+      <c r="BC30" s="46"/>
+      <c r="BD30" s="46"/>
+      <c r="BE30" s="46"/>
+      <c r="BF30" s="47"/>
+      <c r="BG30" s="48"/>
+      <c r="BH30" s="49"/>
+      <c r="BI30" s="50"/>
+    </row>
+    <row r="31" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="96">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D31" s="98"/>
+      <c r="E31" s="122" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="124"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="R31" s="126"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="U31" s="104"/>
+      <c r="V31" s="105"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="99"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="99"/>
+      <c r="AE31" s="86"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="101"/>
+      <c r="AI31" s="102"/>
+      <c r="AJ31" s="106" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK31" s="107"/>
+      <c r="AL31" s="107"/>
+      <c r="AM31" s="107"/>
+      <c r="AN31" s="107"/>
+      <c r="AO31" s="107"/>
+      <c r="AP31" s="107"/>
+      <c r="AQ31" s="107"/>
+      <c r="AR31" s="107"/>
+      <c r="AS31" s="107"/>
+      <c r="AT31" s="107"/>
+      <c r="AU31" s="107"/>
+      <c r="AV31" s="107"/>
+      <c r="AW31" s="108"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="44"/>
+      <c r="BC31" s="46"/>
+      <c r="BD31" s="46"/>
+      <c r="BE31" s="46"/>
+      <c r="BF31" s="47"/>
+      <c r="BG31" s="48"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="50"/>
+    </row>
+    <row r="32" spans="1:61" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="96">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D32" s="98"/>
+      <c r="E32" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="124"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="R32" s="126"/>
+      <c r="S32" s="127"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="85"/>
+      <c r="AD32" s="99"/>
+      <c r="AE32" s="86"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="101"/>
+      <c r="AI32" s="102"/>
+      <c r="AJ32" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK32" s="107"/>
+      <c r="AL32" s="107"/>
+      <c r="AM32" s="107"/>
+      <c r="AN32" s="107"/>
+      <c r="AO32" s="107"/>
+      <c r="AP32" s="107"/>
+      <c r="AQ32" s="107"/>
+      <c r="AR32" s="107"/>
+      <c r="AS32" s="107"/>
+      <c r="AT32" s="107"/>
+      <c r="AU32" s="107"/>
+      <c r="AV32" s="107"/>
+      <c r="AW32" s="108"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="44"/>
+      <c r="BC32" s="46"/>
+      <c r="BD32" s="46"/>
+      <c r="BE32" s="46"/>
+      <c r="BF32" s="47"/>
+      <c r="BG32" s="48"/>
+      <c r="BH32" s="49"/>
+      <c r="BI32" s="50"/>
+    </row>
+    <row r="33" spans="1:51" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="274">
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AJ12:AW12"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AJ15:AW15"/>
+    <mergeCell ref="AJ16:AW16"/>
+    <mergeCell ref="AJ14:AW14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AJ13:AW13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AJ11:AW11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AJ10:AW10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AJ8:AW8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AJ9:AW9"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="AJ6:AW6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AJ7:AW7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AJ17:AW17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:N17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="AJ21:AW21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AJ18:AW18"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="AJ20:AW20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AJ19:AW19"/>
+    <mergeCell ref="AJ22:AW22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AJ23:AW23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AJ24:AW24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AJ25:AW25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AJ26:AW26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AJ27:AW27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AJ28:AW28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AJ29:AW29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AJ30:AW30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AJ31:AW31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AJ32:AW32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+  </mergeCells>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;L&amp;F（&amp;A）&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$C$5:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>O7:P32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$E$5:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>W7:Y32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$D$5:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC7:AE32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$F$5:$F$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>R8:S19 Q7:Q32 R21:S32</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="C4:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <sheetData>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:6">
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
       <c r="C5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>